--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3617491.676452524</v>
+        <v>3615604.09493612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8166987.288845576</v>
+        <v>8166987.288845575</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>52.8229012276257</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>23.59704391789208</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>273.0065037122686</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.71969997626034</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8335894988186328</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>35.60539847200889</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002582</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148915</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9765264254022</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.3416446087993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>249.7211944222916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>140.0424879565124</v>
       </c>
     </row>
     <row r="20">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4653217847139</v>
+        <v>89.15058872626281</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>183.4653217847141</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>56.09541769655124</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>179.0205566759035</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.042680388411888</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>46.15337586178801</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463137</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>107.2994477068551</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371763</v>
+        <v>1112.882134442039</v>
       </c>
       <c r="D5" t="n">
-        <v>411.9186004304258</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="E5" t="n">
-        <v>411.9186004304258</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="F5" t="n">
-        <v>404.9730996812223</v>
+        <v>343.6305310456812</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>329.7071269842721</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1481.844651382451</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="D7" t="n">
-        <v>507.3364050629041</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>359.423311480511</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>212.5333639826006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223454</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830421</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2429.977864901261</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2098.91497755769</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>1746.146322287575</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1746.146322287575</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.146322287575</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,43 +5267,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550146</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9050513325897</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550146</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5595,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
         <v>2016.139981183168</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,25 +5695,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>822.9672145333731</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>568.2827263274862</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>278.8655562905256</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905256</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y19" t="n">
         <v>278.8655562905255</v>
@@ -5744,16 +5744,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,25 +5832,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646855</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.597763704656</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="T22" t="n">
-        <v>1089.812348494162</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1908.095276920733</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2392.65782292164</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609668</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550799</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X25" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,49 +6224,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365137</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216475</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.1316371486757</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207689</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207689</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1018.548807185636</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>729.1316371486757</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X28" t="n">
-        <v>729.1316371486757</v>
+        <v>757.72413441243</v>
       </c>
       <c r="Y28" t="n">
-        <v>729.1316371486757</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6458,37 +6458,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2279.445761859783</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2484.468242641993</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030857</v>
+        <v>439.5324299542197</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565495</v>
+        <v>439.5324299542197</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2447118565495</v>
+        <v>439.5324299542197</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430022</v>
+        <v>347.3802016531974</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264625</v>
+        <v>256.251119436658</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>143.8366630378495</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>143.8366630378495</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818919</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652452</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030857</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,22 +7120,22 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010316</v>
@@ -7154,55 +7154,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>488.2756279992598</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>735.0407559057238</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083194</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.88473985045</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103117</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7552,13 +7552,13 @@
         <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>171.2966883299258</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="O15" t="n">
-        <v>43.65987261462453</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9170,13 +9170,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>180.0237016735871</v>
+        <v>50.6266194094361</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>85.30006332127806</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.2351313103788</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498446</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>202.5230052237944</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615265</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800785</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.7331289636349</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.24300874329546</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>36.51615797628574</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.54216539558233</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>14.45548819888936</v>
+        <v>108.7702212573404</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>189.3952778808841</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>196.0422256272768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>39.56409667619124</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>90.18802562960032</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.062612973926965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712984.4473832541</v>
+        <v>712984.4473832543</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278763</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.847221485</v>
+        <v>732279.8472214852</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778565</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778563</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778562</v>
-      </c>
-      <c r="N2" t="n">
-        <v>738937.5928778556</v>
       </c>
       <c r="O2" t="n">
         <v>738937.5928778555</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778565</v>
+        <v>738937.5928778562</v>
       </c>
     </row>
     <row r="3">
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284573</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284577</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
@@ -26436,13 +26436,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106721</v>
+        <v>40339.23010106728</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,13 +26451,13 @@
         <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819126</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662356</v>
+        <v>-99522.23218662347</v>
       </c>
       <c r="C6" t="n">
         <v>490445.6470279208</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279206</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539262</v>
+        <v>64432.87838942067</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922891</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922888</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922887</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.3739922886</v>
+        <v>589592.9148663164</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996956</v>
+        <v>413169.6956737238</v>
       </c>
       <c r="K6" t="n">
-        <v>551149.8032873494</v>
+        <v>551131.309549415</v>
       </c>
       <c r="L6" t="n">
-        <v>586286.1854287729</v>
+        <v>586286.185428772</v>
       </c>
       <c r="M6" t="n">
-        <v>461828.0769958024</v>
+        <v>461828.0769958026</v>
       </c>
       <c r="N6" t="n">
-        <v>596629.0922296391</v>
+        <v>596629.0922296396</v>
       </c>
       <c r="O6" t="n">
         <v>596629.0922296389</v>
       </c>
       <c r="P6" t="n">
-        <v>552466.4869267943</v>
+        <v>552466.4869267938</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108346</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>99.10841501723556</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>390.1871261029029</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50.91626905208858</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>92.89577304195201</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4762127602323</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>215.6187690362804</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698767</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.44405126592675</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866871</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29998,13 +29998,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>481.7210653803921</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478579</v>
       </c>
       <c r="O15" t="n">
-        <v>326.0235748557327</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>429.2814066296115</v>
+        <v>299.8843243654604</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,7 +35975,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36200,28 +36200,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>334.5577682773024</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.248164095453</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>425.975359705869</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>453.6603905710345</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.5103663981263</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>353.0984438117337</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112268</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
